--- a/CSE_voters.xlsx
+++ b/CSE_voters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">ktuID</t>
   </si>
@@ -37,16 +37,25 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">KTE20CS001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Smith</t>
+    <t xml:space="preserve">KTE20CS002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adwaith M shaju</t>
   </si>
   <si>
     <t xml:space="preserve">CSE</t>
   </si>
   <si>
-    <t xml:space="preserve">20br13271@rit.ac.in</t>
+    <t xml:space="preserve">20br13525@rit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTE20CS003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shijin K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20br13246@rit.ac.in</t>
   </si>
 </sst>
 </file>
@@ -56,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -85,6 +94,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +144,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,6 +154,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,7 +181,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="A3:F5"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -208,11 +227,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
